--- a/CoreRulebook/Data/divination.xlsx
+++ b/CoreRulebook/Data/divination.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">INT</t>
   </si>
   <si>
-    <t xml:space="preserve">Use your tea leaves to receive an omen about the future. </t>
+    <t xml:space="preserve">Use your tea leaves to receive an omen about the future. Ask a question about the outcome of an event. The tea leaves will tell you if the outcome is positive, negative, or neutral. Takes 4 minutes to cast.</t>
   </si>
   <si>
     <r>
@@ -172,14 +172,35 @@
 Lasts for 2 days. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Destination Spell  \\ {\it  </t>
+    <t xml:space="preserve">Astral Caltrops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: Novice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target acts as if the terrain posseses caltrops for 10 turns. Caltrops do psychic damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Gazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaze into your crystal ball, and ask a question of the cosmos. You will receive a yes or a no answer to any question you ask. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Detect Magic Spell \\ {\it  </t>
     </r>
     <r>
       <rPr>
@@ -189,7 +210,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">iterante</t>
+      <t xml:space="preserve">revelio</t>
     </r>
     <r>
       <rPr>
@@ -202,20 +223,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2: Novice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reveals the next destination that destiny has in store for you, get a hint from the GM about the outcome of an action. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Detect Magic Spell \\ {\it  </t>
+    <t xml:space="preserve">EMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reveals to the caster any active spells in the in 15m range. Will deactivate charms whose sole purpose is to remain hidden. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eavesdropping Charm  \\ {\it  </t>
     </r>
     <r>
       <rPr>
@@ -225,7 +246,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">revelio</t>
+      <t xml:space="preserve">dumauris</t>
     </r>
     <r>
       <rPr>
@@ -238,10 +259,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">EMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reveals to the caster any active spells in the in 15m range. Will deactivate charms whose sole purpose is to remain hidden. </t>
+    <t xml:space="preserve">Can listen in on conversations up to 10m away (+2 m for every power point dedicated to the spell). </t>
   </si>
   <si>
     <r>
@@ -277,18 +295,30 @@
     <t xml:space="preserve">POW (willpower)</t>
   </si>
   <si>
-    <t xml:space="preserve">Those attempting to use divination to spy on you must pass a 1d6 SPR check (difficulty 4 + 1 for every power point dedicated to this spell) for the spell to work.
+    <t xml:space="preserve">Those attempting to use divination to spy on you must pass a 1d6 SPR (perception) check (difficulty 4 + 1 for every power point dedicated to this spell) for the spell to work.
 Lasts for one week. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Eavesdropping Charm  \\ {\it  </t>
+    <t xml:space="preserve">Contingency Charm \\ {\it fortasse}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: Adept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You forsee a need for defence in the future, but you can{\apos}t quite see when. The contingency charm allows you to store a spell in an alternative dimension, to be called forth instantly when you need it. After casting the contingency charm, you may then cast the spell that you wish to store. When activated, you may then use this spell as if you had declared a counterspell, in addition to your regular movements. You may have a maximum of three contingencies at any one time.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Glimpse Charm  \\ {\it  </t>
     </r>
     <r>
       <rPr>
@@ -298,7 +328,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">dumauris</t>
+      <t xml:space="preserve">posterus</t>
     </r>
     <r>
       <rPr>
@@ -311,17 +341,23 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Can listen in on conversations up to 10m away (+2 m for every power point dedicated to the spell). </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Glimpse Charm  \\ {\it  </t>
+    <t xml:space="preserve">Get a fleeting glimpse into the future: Automatically dodge the next attack, in addition to your regular action, OR, your next attack always hits its target. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foresight \\ {\it providentia}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By predicting the flow of time, you can give the target the ability to make moves without thinking: give the target 1d4 extra major actions next turn. Each target can only get this boost once per day. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sense Humans Charm  \\ {\it  </t>
     </r>
     <r>
       <rPr>
@@ -331,7 +367,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">posterus</t>
+      <t xml:space="preserve">hominem revelio</t>
     </r>
     <r>
       <rPr>
@@ -344,74 +380,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">3: Adept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get a fleeting glimpse into the future: Automatically dodge the next attack, in addition to your regular action, OR, your next attack always hits its target. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Planemeld  \\ {\it  </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">promoveo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge your physical form with a higher plane of existence, temporarily transcending this reality and making a pact with the benevolent beings that reside there. Your senses become more acute, your mind is refreshed, but you may not cause harm for a period of time. 
-HP and Fortitude restored by 3 points, casting checks get a +2 bonus for 2 turns, but no combat magic may be used for 4 turns. +1 to all numerical values for every power point dedicated to the spell. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sense Humans Charm  \\ {\it  </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hominem revelio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
+    <t xml:space="preserve">EMP \\ (perception)</t>
   </si>
   <si>
     <t xml:space="preserve">Reveals the presence of humanoid life nearby. 
@@ -449,9 +418,6 @@
   </si>
   <si>
     <t xml:space="preserve">4: Expert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR</t>
   </si>
   <si>
     <t xml:space="preserve">Leave your physical form behind, and explore an area as your astral self. 
@@ -492,6 +458,12 @@
     <t xml:space="preserve">If one of your friends has passed away during your journey, you may summon their spirit, and learn one piece of information from them, or temporarily borrow one of their skills and/or spells for 1 turn + 1 for every power point dedicated to the spell. </t>
   </si>
   <si>
+    <t xml:space="preserve">Tag charm \\ {\it signum}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place a mystical marker on the target which enables your allies to strike more accurately at them. Target\apos{}s stealth checks fail, and evasion checks get a -5 penalty for 2 turns + 1 for every power point dedicated. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -562,40 +534,58 @@
     <t xml:space="preserve">For 1 hour, you see things as they truly are. You see hidden traps, secret doors, and astral projections. You can see through illusion spells, and attempts to deceive you are in vain.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Contingency Charm \\ {\it fortasse}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You forsee a need for defence in the future, but you can{\apos}t quite see when. The contingency charm allows you to store a spell in an alternative dimension, to be called forth instantly when you need it. After casting the contingency charm, you may then cast the spell that you wish to store. When activated, you may then use this spell as if you had declared a counterspell, in addition to your regular movements. You may have a maximum of three contingencies at any one time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Gazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaze into your crystal ball, and ask a question of the cosmos. You will receive a yes or a no answer to any question you ask. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag charm \\ {\it signum}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place a mystical marker on the target which enables your allies to strike more accurately at them. Stealth checks fail, and evasion checks get a -5 penalty for 2 turns + 1 for every power point dedicated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astral Caltrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target acts as if the terrain posseses caltrops for 10 turns. Caltrops do psychic damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hone Reflexes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">By predicting the flow of time, you can give the target the ability to make moves without thinking: give the target 1d4 extra major actions next turn. Each target can only get this boost once per day. </t>
+    <t xml:space="preserve">All-seeing Eye \\ {\it orbis}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT \\ (perception)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may create an invisible, magic eye in front of you, that hovers. You mentally see everything that the eye sees, and may use a major action to instruct the eye to move up to 10m in any direction (including vertical). Eye cannot pass through solid walls, but may squeeze through gaps as small as 4cm in diameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commune with Nature \\ {\it naturus}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP \\ (Flora \&amp; Fauna)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You tap into the consciousness that binds all living things together, and receive information about the natural order of things in the vicinity. Outdoors, the range is 3km, whilst underground it is only 100m. Spell fails in artificial environments such as towns. You instantly learn and 3 three bits of information about \begin{itemize}[itemsep=0em]\item terrain and bodies of water \item nearby buildings \item abundant plants or minerals \item frequent visitors \end{itemize}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak in Tongues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By meditating for 5 minutes, you may understand and speak the language of a willing target individual. Effect lasts until concentration is broken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Thoughts \\ {\it psychopractum}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may observe the mind of a target individual. Unlike legilimency, thought-detection is not an exact science, and you will only get a vague shape of their thoughts. If casting check is below the target{\apos}s passive perception, they become aware of the process. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sense Traps \\ {\it antidolus}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT \\ (Understand other)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempt to discover any traps in your immediate vicinity. If successful, you may learn the location of the trap, and the trigger (but not the effect). Success conditions are set by the GM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astral Assistance \\ {\it auxilio}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP \\ (arcane)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By laying your hand upon a sapient being, you may channel magical energy into them. On the next check the target performs, roll 1d4, and add it to the check (+1 per PP, max 3). If the check fails, both the target and the caster take 1d6 psychic damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter\apos{}s Mark \\ {\it venari}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If casting check exceeds passive resist value, caster is aware of the location of the target for the next 3 days, or until the mark is removed by magical means.</t>
   </si>
 </sst>
 </file>
@@ -629,8 +619,8 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="aakar"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -730,34 +720,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -827,21 +817,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="68.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="312.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -881,17 +871,17 @@
       <c r="D2" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -904,17 +894,17 @@
       <c r="D3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -927,17 +917,17 @@
       <c r="D4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -950,7 +940,7 @@
       <c r="D5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="n">
@@ -960,78 +950,78 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="38" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -1042,249 +1032,249 @@
       <c r="D9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="n">
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="n">
+    </row>
+    <row r="19" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -1293,39 +1283,154 @@
         <v>23</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>62</v>
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/divination.xlsx
+++ b/CoreRulebook/Data/divination.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC396984-25B2-43E0-9721-F3ED4A895F2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,190 +25,190 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astral Assistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auxilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (2 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="125">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
+  </si>
+  <si>
+    <t>Astral Assistance</t>
+  </si>
+  <si>
+    <t>auxilio</t>
+  </si>
+  <si>
+    <t>Ritual (2 turns)</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>Arcane</t>
   </si>
   <si>
     <t xml:space="preserve">By laying your hand upon a sapient being, you may channel magical energy into them. On the next check the target performs, roll 1d4, and add it to the check (+1 per PP, max 3). If the check fails, both the target and the caster take 1d6 psychic damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">An expert-level caster may roll 2d4 when performing this spell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunter\apos{}s Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If casting check exceeds passive resist value, caster is aware of the location of the target for the next 3 days, or until the mark is removed by magical means.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dicemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn the properties of the target: be it learning about the nature of the target, or the ingredients of a potion.
+    <t>An expert-level caster may roll 2d4 when performing this spell.</t>
+  </si>
+  <si>
+    <t>Hunter\apos{}s Mark</t>
+  </si>
+  <si>
+    <t>venari</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>If casting check exceeds passive resist value, caster is aware of the location of the target for the next 3 days, or until the mark is removed by magical means.</t>
+  </si>
+  <si>
+    <t>Identify</t>
+  </si>
+  <si>
+    <t>dicemi</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Learn the properties of the target: be it learning about the nature of the target, or the ingredients of a potion.
 The more power points dedicated to the spell, the more information that is revealed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Locate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locus</t>
+    <t>Locate</t>
+  </si>
+  <si>
+    <t>locus</t>
   </si>
   <si>
     <t xml:space="preserve">Learn the location of non-magical objects or an unshielded living being. </t>
   </si>
   <si>
-    <t xml:space="preserve">An master-level clairvoyant may perform a SPR(willpower) check to overcome magical shields blocking this spell\apos{}s effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receive Omen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use your tea leaves to receive an omen about the future. Ask a question about the outcome of an event. The tea leaves will tell you if the outcome is positive, negative, or neutral. Takes 4 minutes to cast.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sense Traps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antidolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attempt to discover any traps in your immediate vicinity. If successful, you may learn the location of the trap, and the trigger (but not the effect). Success conditions are set by the GM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speak in Tongues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lingua maxima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (5 minutes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 minutes</t>
+    <t>An master-level clairvoyant may perform a SPR(willpower) check to overcome magical shields blocking this spell\apos{}s effect.</t>
+  </si>
+  <si>
+    <t>Receive Omen</t>
+  </si>
+  <si>
+    <t>Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t>Use your tea leaves to receive an omen about the future. Ask a question about the outcome of an event. The tea leaves will tell you if the outcome is positive, negative, or neutral. Takes 4 minutes to cast.</t>
+  </si>
+  <si>
+    <t>Sense Traps</t>
+  </si>
+  <si>
+    <t>antidolus</t>
+  </si>
+  <si>
+    <t>Understand Other</t>
+  </si>
+  <si>
+    <t>Attempt to discover any traps in your immediate vicinity. If successful, you may learn the location of the trap, and the trigger (but not the effect). Success conditions are set by the GM.</t>
+  </si>
+  <si>
+    <t>Speak in Tongues</t>
+  </si>
+  <si>
+    <t>lingua maxima</t>
+  </si>
+  <si>
+    <t>Ritual (5 minutes)</t>
+  </si>
+  <si>
+    <t>4 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">By meditating for 5 minutes, you may understand and speak the language of a willing target individual. Target must be a sapient being, or otherwise able to speak at least one language. </t>
   </si>
   <si>
-    <t xml:space="preserve">Telepathic Bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conanimus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 days</t>
+    <t>Telepathic Bond</t>
+  </si>
+  <si>
+    <t>conanimus</t>
+  </si>
+  <si>
+    <t>2 days</t>
   </si>
   <si>
     <t xml:space="preserve">Form a mental connection between your mind and the mind of a willing target. You may then use this connection to communicate silently. Target must be within touching distance when the spell is cast, but the bond has no distance limit after that. </t>
   </si>
   <si>
-    <t xml:space="preserve">All-seeing Eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orbis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception</t>
+    <t>All-seeing Eye</t>
+  </si>
+  <si>
+    <t>orbis</t>
+  </si>
+  <si>
+    <t>Perception</t>
   </si>
   <si>
     <t xml:space="preserve">You may create an invisible, magic eye in front of you, that hovers. You mentally see everything that the eye sees, and may use a major action to instruct the eye to move up to 10m in any direction (including vertical). Eye cannot pass through solid walls, but may squeeze through gaps as small as 4cm in diameter. Eye can detect astral projections. </t>
   </si>
   <si>
-    <t xml:space="preserve">Astral Caltrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caltrops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The target acts as if the terrain posseses caltrops for 10 turns. Caltrops do 1d6 psychic damage for every metre moved by the target.</t>
+    <t>Astral Caltrops</t>
+  </si>
+  <si>
+    <t>Caltrops</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>The target acts as if the terrain posseses caltrops for 10 turns. Caltrops do 1d6 psychic damage for every metre moved by the target.</t>
   </si>
   <si>
     <t xml:space="preserve">When cast by an adept-level caster, this spell can effect all beings in a 1d4 metre radius, and when cast by a Master-level caster, the caltrops do 2d8 damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Crystal Gazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (4 turns)</t>
+    <t>Crystal Gazing</t>
+  </si>
+  <si>
+    <t>Gazing</t>
+  </si>
+  <si>
+    <t>Ritual (4 turns)</t>
   </si>
   <si>
     <t xml:space="preserve">EMP </t>
@@ -212,98 +217,98 @@
     <t xml:space="preserve">Gaze into your crystal ball, and ask a question of the cosmos. You will receive a yes or a no answer to any question you ask. </t>
   </si>
   <si>
-    <t xml:space="preserve">Detect Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revelio</t>
+    <t>Detect Magic</t>
+  </si>
+  <si>
+    <t>revelio</t>
   </si>
   <si>
     <t xml:space="preserve">Reveals to the caster any active spells in the in 15m range if the casting check exceeds the hiding check. Will deactivate charms whose sole purpose is to remain hidden. </t>
   </si>
   <si>
-    <t xml:space="preserve">Detect Thoughts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psychopractum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
+    <t>Detect Thoughts</t>
+  </si>
+  <si>
+    <t>psychopractum</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
   <si>
     <t xml:space="preserve">You may observe the mind of a target individual. Unlike legilimency, thought-detection is not an exact science, and you will only get a vague shape of their current thoughts – perhaps a quick flash of colour, or a feeling of fear. If casting check is below the target{\apos}s passive perception, they become aware of the process. </t>
   </si>
   <si>
-    <t xml:space="preserve">An Master-level caster may subtly alter the flow of a target\apos{}s thoughts, and cause them to think about whatever the caster desires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eavesdrop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumauris</t>
+    <t>An Master-level caster may subtly alter the flow of a target\apos{}s thoughts, and cause them to think about whatever the caster desires.</t>
+  </si>
+  <si>
+    <t>Eavesdrop</t>
+  </si>
+  <si>
+    <t>dumauris</t>
   </si>
   <si>
     <t xml:space="preserve">Can listen in on conversations up to (10 + 2$\times$PP) meters away. </t>
   </si>
   <si>
-    <t xml:space="preserve">Obfuscation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obscuras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 hour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willpower</t>
+    <t>Obfuscation</t>
+  </si>
+  <si>
+    <t>obscuras</t>
+  </si>
+  <si>
+    <t>Ritual (1 hour)</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>Willpower</t>
   </si>
   <si>
     <t xml:space="preserve">Those attempting to use divination to spy on you must pass a SPR (perception) Resist check  (difficulty 10 + PP) for the spell to work.
 Lasts for one week. </t>
   </si>
   <si>
-    <t xml:space="preserve">Contingency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fortasse</t>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>fortasse</t>
   </si>
   <si>
     <t xml:space="preserve">INT </t>
   </si>
   <si>
-    <t xml:space="preserve">You forsee a need for defence in the future, but you can{\apos}t quite see when. The contingency charm allows you to store a spell in an alternative dimension, to be called forth instantly when you need it. After casting the contingency charm, you may then cast the spell that you wish to store. When activated, you may then use this spell as if you had declared a counterspell, in addition to your regular movements. You may have a maximum of three contingencies at any one time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foresight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">providentia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 turn</t>
+    <t>You forsee a need for defence in the future, but you can{\apos}t quite see when. The contingency charm allows you to store a spell in an alternative dimension, to be called forth instantly when you need it. After casting the contingency charm, you may then cast the spell that you wish to store. When activated, you may then use this spell as if you had declared a counterspell, in addition to your regular movements. You may have a maximum of three contingencies at any one time.</t>
+  </si>
+  <si>
+    <t>Foresight</t>
+  </si>
+  <si>
+    <t>providentia</t>
+  </si>
+  <si>
+    <t>1 turn</t>
   </si>
   <si>
     <t xml:space="preserve">By predicting the flow of time, you can give the target the ability to make moves without thinking: give the target 2 extra major actions next turn. Each target can only get this boost once per day. </t>
   </si>
   <si>
-    <t xml:space="preserve">A master-level caster may provide 1+1d4 extra actions per turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glimpse Future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posterus</t>
+    <t>A master-level caster may provide 1+1d4 extra actions per turn.</t>
+  </si>
+  <si>
+    <t>Glimpse Future</t>
+  </si>
+  <si>
+    <t>posterus</t>
   </si>
   <si>
     <t xml:space="preserve">Get a fleeting glimpse into the future: Automatically dodge the next attack, in addition to your regular action, OR, your next attack always hits its target. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sense Humans</t>
+    <t>Sense Humans</t>
   </si>
   <si>
     <t xml:space="preserve">Reveals the presence of humanoid life nearby. 
@@ -314,36 +319,33 @@
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a caster greater than 15</t>
+      <t>When cast by a caster greater than 15</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <rFont val="aakar"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> level, you also learn the name of the humans. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Astral Projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ambilofors</t>
+    <t>Astral Projection</t>
+  </si>
+  <si>
+    <t>ambilofors</t>
   </si>
   <si>
     <t xml:space="preserve">Leave your physical form behind, and explore an area as your astral self. 
@@ -351,72 +353,105 @@
 If your astral self is killed, your physical body{\apos}s HP is reduced to zero, and your enter into the Critical Condition status. </t>
   </si>
   <si>
-    <t xml:space="preserve">Commune with Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naturus amicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (5 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flora \&amp; Fauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You tap into the consciousness that binds all living things together, and receive information about the natural order of things in the vicinity. Outdoors, the range is 3km, whilst underground it is only 100m. Spell fails in artificial environments such as towns. You instantly learn and 3 three bits of information about \begin{itemize}\item terrain and bodies of water \item nearby buildings \item abundant plants or minerals \item frequent visitors \end{itemize}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune with the Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amisit amicum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (2 hours)</t>
+    <t>Commune with Nature</t>
+  </si>
+  <si>
+    <t>naturus amicus</t>
+  </si>
+  <si>
+    <t>Ritual (5 turns)</t>
+  </si>
+  <si>
+    <t>Flora \&amp; Fauna</t>
+  </si>
+  <si>
+    <t>You tap into the consciousness that binds all living things together, and receive information about the natural order of things in the vicinity. Outdoors, the range is 3km, whilst underground it is only 100m. Spell fails in artificial environments such as towns. You instantly learn and 3 three bits of information about \begin{itemize}\item terrain and bodies of water \item nearby buildings \item abundant plants or minerals \item frequent visitors \end{itemize}</t>
+  </si>
+  <si>
+    <t>Commune with the Dead</t>
+  </si>
+  <si>
+    <t>amisit amicum</t>
+  </si>
+  <si>
+    <t>Ritual (2 hours)</t>
   </si>
   <si>
     <t xml:space="preserve">You may summon a spirit of the dead, and learn one piece of information from them, or temporarily borrow one of their skills and/or spells for (1+PP) turns. You must know the target\apos{}s name, and they must be willing to help you. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ethereal Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2 + 2$\times$ PP) minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place a mystical marker on the target which enables your allies to strike more accurately at them. Target\apos{}s stealth checks fail, and evasion checks get a -5 penalty for (2+PP) turns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mists of Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momento aeternitatis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter into a trance, whereby you can observe the past or the future, to uncover what was, or what will be. 
+    <t>Ethereal Tag</t>
+  </si>
+  <si>
+    <t>signum</t>
+  </si>
+  <si>
+    <t>(2 + 2$\times$ PP) minutes</t>
+  </si>
+  <si>
+    <t>Place a mystical marker on the target which enables your allies to strike more accurately at them. Target\apos{}s stealth checks fail, and evasion checks get a -5 penalty for (2+PP) turns.</t>
+  </si>
+  <si>
+    <t>Mists of Time</t>
+  </si>
+  <si>
+    <t>momento aeternitatis</t>
+  </si>
+  <si>
+    <t>Enter into a trance, whereby you can observe the past or the future, to uncover what was, or what will be. 
 You may observe up to (1+PP) day into the future, or (1+PP) year into the past.</t>
   </si>
   <si>
-    <t xml:space="preserve">True Sight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vidergo sumus</t>
+    <t>True Sight</t>
+  </si>
+  <si>
+    <t>vidergo sumus</t>
   </si>
   <si>
     <t xml:space="preserve">For 1 hour, you see things as they truly are. You see hidden traps, secret doors, and astral projections. You can see through illusion spells, and attempts to deceive you are in vain.  </t>
+  </si>
+  <si>
+    <t>Astral Attack</t>
+  </si>
+  <si>
+    <t>devonus</t>
+  </si>
+  <si>
+    <t>Planemeld</t>
+  </si>
+  <si>
+    <t>By focussing your inner energies, you are able to summon an ethereal weapon to strike at enemies on other planes of existence. Do (2+PP)d6 psychic damage to astral entities such as {\it Astral Projections}.</t>
+  </si>
+  <si>
+    <t>cogitosum</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>You open yourself up to a higher power, channelling the energies into a warded region that surrounds you in a cylinder (10+$3\times$PP) metres in radius. The energies of the plane infuse this warded region, as if the dimension had merged into the normal one. The caster may choose if they are affected by the planemeld at first, but once they exit the region, they will feel its effects when they re-enter. You may choose from one of the following planes: 
+\begin{itemize}
+\item {\it Abyss, the Terrible}: all entities take the Terrified status 
+\item {\it Aeolus, the Stormbringer}: a cloud fills the region giving severe obscuration, and targets inside take 2d6 electric damage per turn 
+\item {\it Eden, the Bountiful}: the caster may manipulate the plants within the region, causing them to grow as desired 
+\item  {\it Elysium, the Blessed}: all beings get check-advantage 
+\item {\it Hades, the Dead}: all beings below 50\% health must pass an ATH(health) check (DV 10) or die instantly 
+\item {\it Hyperborea, the Cold}: the region is lowered to -150 degrees celsius, doing 3d8 cold damage per turn 
+\item {\it Machina, the Ordered}: all beings are forced into their true form. Illusions shatter, transfiguration spells fail, and astral effects are nullified. 
+\item {\it Nirvana, the Peaceful}: no combat actions may be taken in the region
+\item {\it Pand{\ae}monium, the Chaotic}: all beings in the region are {\it True Shapeshift}-ed into random animals for 1 minute.
+\item {\it Scholomancia, the Knowledgable}: all beings gain a temporary +3 bonus to Arcane, History and Research checks
+\item {\it Tartarus, the Torturer}: all beings suffer as if the {\it Incomprehensible Torture} spell had been cast on them with 2PP.
+\item {\it Valhalla, the Brave}: all beings gain a temporary +4 bonus to Willpower and Endurance
+\item {\it Vulcan, the Fiery}: everything in the region is ignited for 3d12 fire damage.
+\end{itemize}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,24 +459,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="aakar"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -454,7 +473,6 @@
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="aakar"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -479,14 +497,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -501,7 +519,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -517,89 +535,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -658,38 +637,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="115.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="75.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.57"/>
+    <col min="1" max="2" width="23.5703125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="11.5703125" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1"/>
+    <col min="10" max="10" width="115" style="2" customWidth="1"/>
+    <col min="11" max="11" width="75.28515625" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="24.2" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -734,13 +1020,13 @@
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -749,7 +1035,7 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -759,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="24.2" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -772,24 +1058,24 @@
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>4</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="31.35" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -799,13 +1085,13 @@
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>6</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -814,14 +1100,14 @@
       <c r="H4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="24.2" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -831,13 +1117,13 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -846,7 +1132,7 @@
       <c r="H5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>4</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -856,7 +1142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="24.2" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -864,27 +1150,27 @@
       <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="24.2" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -894,13 +1180,13 @@
       <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>4</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -909,14 +1195,14 @@
       <c r="H7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>5</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="24.2" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -929,10 +1215,10 @@
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -941,14 +1227,14 @@
       <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>4</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="31.35" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -961,10 +1247,10 @@
       <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -973,14 +1259,14 @@
       <c r="H9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="24.2" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
@@ -990,13 +1276,13 @@
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6">
         <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1005,14 +1291,14 @@
       <c r="H10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="6">
         <v>6</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="24.2" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1025,17 +1311,17 @@
       <c r="D11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="10">
         <v>5</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="10">
         <v>7</v>
       </c>
       <c r="J11" s="11" t="s">
@@ -1045,7 +1331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="24.2" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1055,27 +1341,27 @@
       <c r="C12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6">
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="6">
         <v>7</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="24.2" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
@@ -1085,27 +1371,27 @@
       <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="8">
         <v>2</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="8">
         <v>5</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="8">
         <v>5</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="31.35" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>66</v>
       </c>
@@ -1115,13 +1401,13 @@
       <c r="C14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6">
         <v>15</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -1130,7 +1416,7 @@
       <c r="H14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="6">
         <v>7</v>
       </c>
       <c r="J14" s="7" t="s">
@@ -1140,7 +1426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" ht="31.35" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
@@ -1150,13 +1436,13 @@
       <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>0</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>2</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>5</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -1165,14 +1451,14 @@
       <c r="H15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>8</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="31.35" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>74</v>
       </c>
@@ -1185,10 +1471,10 @@
       <c r="D16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>2</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>7</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -1197,14 +1483,14 @@
       <c r="H16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="6">
         <v>6</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="31.35" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>81</v>
       </c>
@@ -1214,27 +1500,27 @@
       <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="10">
         <v>9</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="10" t="n">
+      <c r="I17" s="10">
         <v>10</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="31.35" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>85</v>
       </c>
@@ -1247,10 +1533,10 @@
       <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="6">
         <v>3</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="6">
         <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1259,7 +1545,7 @@
       <c r="H18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="6">
         <v>12</v>
       </c>
       <c r="J18" s="7" t="s">
@@ -1269,7 +1555,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="24.2" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
@@ -1279,27 +1565,27 @@
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="6">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="6">
         <v>6</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="6">
         <v>9</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="31.35" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>93</v>
       </c>
@@ -1309,13 +1595,13 @@
       <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="8">
         <v>3</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>5</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -1324,7 +1610,7 @@
       <c r="H20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="8">
         <v>7</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -1334,7 +1620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="40.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="40.35" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
@@ -1344,27 +1630,27 @@
       <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>4</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>9</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="8">
         <v>9</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="31.35" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>99</v>
       </c>
@@ -1374,13 +1660,13 @@
       <c r="C22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="10">
         <v>4</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="10">
         <v>6</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -1389,14 +1675,14 @@
       <c r="H22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="10">
         <v>9</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="24.2" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>104</v>
       </c>
@@ -1406,27 +1692,27 @@
       <c r="C23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="8">
         <v>4</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8">
         <v>10</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="8">
         <v>10</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="31.35" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>108</v>
       </c>
@@ -1439,10 +1725,10 @@
       <c r="D24" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="10">
         <v>4</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="10">
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -1451,14 +1737,14 @@
       <c r="H24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="10">
         <v>9</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="31.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="31.35" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>112</v>
       </c>
@@ -1468,27 +1754,27 @@
       <c r="C25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="8">
         <v>5</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="8">
         <v>15</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="8">
         <v>15</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="24.2" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>115</v>
       </c>
@@ -1501,10 +1787,10 @@
       <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="8">
         <v>5</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="8">
         <v>12</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -1513,18 +1799,84 @@
       <c r="H26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="8">
         <v>16</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="27" spans="1:11" ht="22.5">
+      <c r="A27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="202.5">
+      <c r="A28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1">
+        <v>13</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H43:H54">
+    <sortCondition ref="H43"/>
+  </sortState>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CoreRulebook/Data/divination.xlsx
+++ b/CoreRulebook/Data/divination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC396984-25B2-43E0-9721-F3ED4A895F2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB55C8C-20F0-4779-B6DA-419BF0F64472}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,11 +348,6 @@
     <t>ambilofors</t>
   </si>
   <si>
-    <t xml:space="preserve">Leave your physical form behind, and explore an area as your astral self. 
-Your astral self is undetectable to most living beings, and has (3+PP) HP, but cannot interact with your environment.
-If your astral self is killed, your physical body{\apos}s HP is reduced to zero, and your enter into the Critical Condition status. </t>
-  </si>
-  <si>
     <t>Commune with Nature</t>
   </si>
   <si>
@@ -429,22 +424,12 @@
     <t>Ward</t>
   </si>
   <si>
-    <t>You open yourself up to a higher power, channelling the energies into a warded region that surrounds you in a cylinder (10+$3\times$PP) metres in radius. The energies of the plane infuse this warded region, as if the dimension had merged into the normal one. The caster may choose if they are affected by the planemeld at first, but once they exit the region, they will feel its effects when they re-enter. You may choose from one of the following planes: 
-\begin{itemize}
-\item {\it Abyss, the Terrible}: all entities take the Terrified status 
-\item {\it Aeolus, the Stormbringer}: a cloud fills the region giving severe obscuration, and targets inside take 2d6 electric damage per turn 
-\item {\it Eden, the Bountiful}: the caster may manipulate the plants within the region, causing them to grow as desired 
-\item  {\it Elysium, the Blessed}: all beings get check-advantage 
-\item {\it Hades, the Dead}: all beings below 50\% health must pass an ATH(health) check (DV 10) or die instantly 
-\item {\it Hyperborea, the Cold}: the region is lowered to -150 degrees celsius, doing 3d8 cold damage per turn 
-\item {\it Machina, the Ordered}: all beings are forced into their true form. Illusions shatter, transfiguration spells fail, and astral effects are nullified. 
-\item {\it Nirvana, the Peaceful}: no combat actions may be taken in the region
-\item {\it Pand{\ae}monium, the Chaotic}: all beings in the region are {\it True Shapeshift}-ed into random animals for 1 minute.
-\item {\it Scholomancia, the Knowledgable}: all beings gain a temporary +3 bonus to Arcane, History and Research checks
-\item {\it Tartarus, the Torturer}: all beings suffer as if the {\it Incomprehensible Torture} spell had been cast on them with 2PP.
-\item {\it Valhalla, the Brave}: all beings gain a temporary +4 bonus to Willpower and Endurance
-\item {\it Vulcan, the Fiery}: everything in the region is ignited for 3d12 fire damage.
-\end{itemize}</t>
+    <t xml:space="preserve">Leave your physical form behind, and project your spirit into the Astral Realm. 
+Your astral self is undetectable to most living beings, and has (3+PP) HP, but can only interact with other entities on the Astral Realm. 
+If your astral self is killed, your physical body{\apos}s HP is reduced to zero, and your enter into the Critical Condition status. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You open yourself up to a higher power, channelling the energies into a warded region that surrounds you in a cylinder (10+$3\times$PP) metres in radius. The energies of the plane infuse this warded region, as if the dimension had merged into the normal one. The caster may choose if they are affected by the planemeld at first, but once they exit the region, they will feel its effects when they re-enter. You may choose from one of the planes found on page \pageref{S:Planes}, wich also details the planemeld effects for each plane. </t>
   </si>
 </sst>
 </file>
@@ -961,7 +946,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1647,18 +1632,18 @@
         <v>9</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="31.35" customHeight="1">
       <c r="A22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -1673,24 +1658,24 @@
         <v>14</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I22" s="10">
         <v>9</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="24.2" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -1709,21 +1694,21 @@
         <v>10</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="31.35" customHeight="1">
       <c r="A24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="10">
         <v>4</v>
@@ -1741,15 +1726,15 @@
         <v>9</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="31.35" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>76</v>
@@ -1771,15 +1756,15 @@
         <v>15</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="24.2" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>41</v>
@@ -1803,15 +1788,15 @@
         <v>16</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="22.5">
       <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -1835,18 +1820,18 @@
         <v>7</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45">
+      <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="202.5">
-      <c r="A28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>54</v>

--- a/CoreRulebook/Data/divination.xlsx
+++ b/CoreRulebook/Data/divination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB55C8C-20F0-4779-B6DA-419BF0F64472}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559845B9-33A6-47A9-8FA6-5C17E9C3E7E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t xml:space="preserve">You open yourself up to a higher power, channelling the energies into a warded region that surrounds you in a cylinder (10+$3\times$PP) metres in radius. The energies of the plane infuse this warded region, as if the dimension had merged into the normal one. The caster may choose if they are affected by the planemeld at first, but once they exit the region, they will feel its effects when they re-enter. You may choose from one of the planes found on page \pageref{S:Planes}, wich also details the planemeld effects for each plane. </t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Golden glow</t>
+  </si>
+  <si>
+    <t>Semi-transparent arrow</t>
+  </si>
+  <si>
+    <t>Blue rays</t>
+  </si>
+  <si>
+    <t>Purple bolt</t>
+  </si>
+  <si>
+    <t>Green flash</t>
+  </si>
+  <si>
+    <t>Invisible ripple</t>
+  </si>
+  <si>
+    <t>Green glow</t>
+  </si>
+  <si>
+    <t>Grey-black aura</t>
+  </si>
+  <si>
+    <t>Yellow bolt</t>
   </si>
 </sst>
 </file>
@@ -940,27 +970,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK28"/>
+  <dimension ref="A1:AML28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="23.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="11.5703125" style="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1"/>
-    <col min="10" max="10" width="115" style="2" customWidth="1"/>
-    <col min="11" max="11" width="75.28515625" style="1" customWidth="1"/>
-    <col min="12" max="1025" width="11.5703125" style="1"/>
+    <col min="3" max="8" width="11.5703125" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="11" width="115" style="2" customWidth="1"/>
+    <col min="12" max="12" width="75.28515625" style="1" customWidth="1"/>
+    <col min="13" max="1026" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -971,31 +1001,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24.2" customHeight="1">
+    <row r="2" spans="1:12" ht="24.2" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1005,32 +1038,35 @@
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24.2" customHeight="1">
+    <row r="3" spans="1:12" ht="24.2" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1041,26 +1077,29 @@
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
         <v>4</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.35" customHeight="1">
+    <row r="4" spans="1:12" ht="31.35" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -1070,29 +1109,32 @@
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.2" customHeight="1">
+    <row r="5" spans="1:12" ht="24.2" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -1102,32 +1144,33 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24.2" customHeight="1">
+    <row r="6" spans="1:12" ht="24.2" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -1135,27 +1178,28 @@
       <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8">
+      <c r="I6" s="9"/>
+      <c r="J6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24.2" customHeight="1">
+    <row r="7" spans="1:12" ht="24.2" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1165,29 +1209,30 @@
       <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>5</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.2" customHeight="1">
+    <row r="8" spans="1:12" ht="24.2" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1197,29 +1242,30 @@
       <c r="C8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>8</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>4</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.35" customHeight="1">
+    <row r="9" spans="1:12" ht="31.35" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -1229,29 +1275,30 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>5</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.2" customHeight="1">
+    <row r="10" spans="1:12" ht="24.2" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
@@ -1261,29 +1308,30 @@
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>4</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.2" customHeight="1">
+    <row r="11" spans="1:12" ht="24.2" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
@@ -1294,29 +1342,32 @@
         <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10">
         <v>7</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24.2" customHeight="1">
+    <row r="12" spans="1:12" ht="24.2" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1326,27 +1377,28 @@
       <c r="C12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6">
+      <c r="I12" s="7"/>
+      <c r="J12" s="6">
         <v>7</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24.2" customHeight="1">
+    <row r="13" spans="1:12" ht="24.2" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
@@ -1356,27 +1408,28 @@
       <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>5</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8">
+      <c r="I13" s="9"/>
+      <c r="J13" s="8">
         <v>5</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.35" customHeight="1">
+    <row r="14" spans="1:12" ht="31.35" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>66</v>
       </c>
@@ -1386,32 +1439,33 @@
       <c r="C14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>15</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>7</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="31.35" customHeight="1">
+    <row r="15" spans="1:12" ht="31.35" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
@@ -1421,29 +1475,30 @@
       <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>0</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>5</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>8</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.35" customHeight="1">
+    <row r="16" spans="1:12" ht="31.35" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>74</v>
       </c>
@@ -1453,29 +1508,30 @@
       <c r="C16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>7</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="31.35" customHeight="1">
+    <row r="17" spans="1:12" ht="31.35" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>81</v>
       </c>
@@ -1485,27 +1541,30 @@
       <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>9</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10">
+      <c r="I17" s="9"/>
+      <c r="J17" s="10">
         <v>10</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="31.35" customHeight="1">
+    <row r="18" spans="1:12" ht="31.35" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>85</v>
       </c>
@@ -1515,32 +1574,33 @@
       <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <v>3</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>7</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>12</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="24.2" customHeight="1">
+    <row r="19" spans="1:12" ht="24.2" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
@@ -1550,27 +1610,28 @@
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>6</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6">
+      <c r="I19" s="7"/>
+      <c r="J19" s="6">
         <v>9</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="31.35" customHeight="1">
+    <row r="20" spans="1:12" ht="31.35" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>93</v>
       </c>
@@ -1580,32 +1641,33 @@
       <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <v>5</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>7</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="40.35" customHeight="1">
+    <row r="21" spans="1:12" ht="40.35" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
@@ -1615,27 +1677,30 @@
       <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G21" s="8">
         <v>9</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8">
+      <c r="I21" s="9"/>
+      <c r="J21" s="8">
         <v>9</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="31.35" customHeight="1">
+    <row r="22" spans="1:12" ht="31.35" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>98</v>
       </c>
@@ -1645,29 +1710,32 @@
       <c r="C22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="10">
+      <c r="F22" s="10">
         <v>4</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="10">
         <v>6</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="10">
+      <c r="J22" s="10">
         <v>9</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="24.2" customHeight="1">
+    <row r="23" spans="1:12" ht="24.2" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>103</v>
       </c>
@@ -1677,27 +1745,30 @@
       <c r="C23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>4</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>10</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8">
+      <c r="I23" s="9"/>
+      <c r="J23" s="8">
         <v>10</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="31.35" customHeight="1">
+    <row r="24" spans="1:12" ht="31.35" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>107</v>
       </c>
@@ -1708,28 +1779,31 @@
         <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F24" s="10">
         <v>4</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="10">
         <v>7</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="10">
+      <c r="J24" s="10">
         <v>9</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="31.35" customHeight="1">
+    <row r="25" spans="1:12" ht="31.35" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>111</v>
       </c>
@@ -1739,27 +1813,28 @@
       <c r="C25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>5</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>15</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8">
+      <c r="I25" s="9"/>
+      <c r="J25" s="8">
         <v>15</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.2" customHeight="1">
+    <row r="26" spans="1:12" ht="24.2" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>114</v>
       </c>
@@ -1769,29 +1844,30 @@
       <c r="C26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="8">
+      <c r="F26" s="8">
         <v>5</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>12</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>16</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="22.5">
+    <row r="27" spans="1:12" ht="22.5">
       <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
@@ -1801,29 +1877,29 @@
       <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>7</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>7</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="45">
+    <row r="28" spans="1:12" ht="45">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -1833,31 +1909,31 @@
       <c r="C28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>18</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>13</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H43:H54">
-    <sortCondition ref="H43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I43:I54">
+    <sortCondition ref="I43"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/CoreRulebook/Data/divination.xlsx
+++ b/CoreRulebook/Data/divination.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t xml:space="preserve">You open yourself up to a higher power, channelling the energies into a warded region that surrounds you in a cylinder (10+$3\times$PP) metres in radius. The energies of the plane infuse this warded region, as if the dimension had merged into the normal one. The caster may choose if they are affected by the planemeld at first, but once they exit the region, they will feel its effects when they re-enter. You may choose from one of the planes found on page \pageref{S:Planes}, wich also details the planemeld effects for each plane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thought Extractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the caster to extract a specific memory from their minds, for subsequent storage, either in a glass vial, or in a pensieve. Memories that have been extracted through this method cannot be viewed by legilimency.</t>
   </si>
 </sst>
 </file>
@@ -751,25 +760,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="115.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="115.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="75.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.57"/>
   </cols>
@@ -1793,6 +1802,35 @@
       </c>
       <c r="M28" s="2" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/divination.xlsx
+++ b/CoreRulebook/Data/divination.xlsx
@@ -308,7 +308,7 @@
     <t xml:space="preserve">10 + PP</t>
   </si>
   <si>
-    <t xml:space="preserve">All attempts to spy on you using magical means must pass a successful Resist, or fail. This spell lasts for 1 week after it is cast. </t>
+    <t xml:space="preserve">All attempts to locate, scry on, or otherwise detect the target using magical means must pass a successful Resist, or fail. </t>
   </si>
   <si>
     <t xml:space="preserve">Contingency</t>
@@ -685,12 +685,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -763,14 +763,14 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M30" activeCellId="0" sqref="M30"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
